--- a/docs/source/examples_jupyter/overview/butane.xlsx
+++ b/docs/source/examples_jupyter/overview/butane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Dropbox\UDel Documents (Dropbox)\UDel Research\pMuTT Shared\Training01-23-2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Dropbox\UDel Documents (Dropbox)\UDel Research\Github\pMuTT_master\docs\source\examples_jupyter\overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3D5E5-1CA0-48E8-93FA-4A34EBBB5B26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ED5248-E73C-47B5-8DAD-42119A9A269B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{CC76B2C0-E3A5-4CD8-AFAD-85C9A4C3D4D0}"/>
+    <workbookView xWindow="22932" yWindow="576" windowWidth="23256" windowHeight="12576" xr2:uid="{CC76B2C0-E3A5-4CD8-AFAD-85C9A4C3D4D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 in 1/cm</t>
   </si>
   <si>
-    <t>.\butane\CONTCAR</t>
+    <t>CONTCAR_C4H10</t>
   </si>
 </sst>
 </file>
@@ -502,23 +502,23 @@
   <dimension ref="A1:BX3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="44" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -665,7 +665,7 @@
       <c r="BD1" s="9"/>
       <c r="BE1" s="9"/>
     </row>
-    <row r="2" spans="1:76" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:76" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="BW2" s="6"/>
       <c r="BX2" s="6"/>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
